--- a/Info/Standard_errors.xlsx
+++ b/Info/Standard_errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\DFTtraining\GSCDB139\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08157662-752E-4B49-B964-2D6044DFF118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2CBEF1-4B28-432E-BCF0-AC57EE6A34A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="2880" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304724B3-44DF-4577-8B4D-D5FDB4360A01}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>1.1749493358994221</v>
+        <v>1.174950884973305</v>
       </c>
       <c r="C2" s="2">
-        <v>1.5674942997539101</v>
+        <v>1.567501998789002</v>
       </c>
       <c r="D2" s="2">
-        <v>1.1749493358994221</v>
+        <v>1.174950884973305</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>1.313778628799539</v>
+        <v>1.313773195348638</v>
       </c>
       <c r="C3" s="2">
-        <v>1.736828967378069</v>
+        <v>1.7368218309322081</v>
       </c>
       <c r="D3" s="2">
-        <v>1.313778628799539</v>
+        <v>1.313773195348638</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1067,13 +1067,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>1.612894384344735</v>
+        <v>1.612891238481361</v>
       </c>
       <c r="C4" s="2">
-        <v>2.1792379272460449</v>
+        <v>2.1792340578886149</v>
       </c>
       <c r="D4" s="2">
-        <v>1.612894384344735</v>
+        <v>1.612891238481361</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1081,13 +1081,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>1.1556299384188029</v>
+        <v>1.155611986799034</v>
       </c>
       <c r="C5" s="2">
-        <v>1.475999574408992</v>
+        <v>1.4759771538188831</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1556299384188029</v>
+        <v>1.155611986799034</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1095,13 +1095,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>1.102331204044203</v>
+        <v>1.10234303263047</v>
       </c>
       <c r="C6" s="2">
-        <v>1.5156104977186851</v>
+        <v>1.5156174789733281</v>
       </c>
       <c r="D6" s="2">
-        <v>1.102331204044203</v>
+        <v>1.10234303263047</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1109,13 +1109,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>0.30149728315052282</v>
+        <v>0.30150099953296</v>
       </c>
       <c r="C7" s="2">
-        <v>0.43693599810132122</v>
+        <v>0.43694030397850381</v>
       </c>
       <c r="D7" s="2">
-        <v>0.30149728315052282</v>
+        <v>0.30150099953296</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1123,13 +1123,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>0.86233335030017166</v>
+        <v>0.86234150373321106</v>
       </c>
       <c r="C8" s="2">
-        <v>1.0768177292409311</v>
+        <v>1.076828351088724</v>
       </c>
       <c r="D8" s="2">
-        <v>0.86233335030017166</v>
+        <v>0.86234150373321106</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1137,13 +1137,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>1.206544129037511</v>
+        <v>1.206541418769373</v>
       </c>
       <c r="C9" s="2">
-        <v>1.474902850457718</v>
+        <v>1.4749034531419321</v>
       </c>
       <c r="D9" s="2">
-        <v>1.206544129037511</v>
+        <v>1.206541418769373</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1151,13 +1151,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>1.124860868242805</v>
+        <v>1.124860652761662</v>
       </c>
       <c r="C10" s="2">
-        <v>1.587893480017492</v>
+        <v>1.5878905805340291</v>
       </c>
       <c r="D10" s="2">
-        <v>1.124860868242805</v>
+        <v>1.124860652761662</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1165,13 +1165,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>2.266070237071411</v>
+        <v>2.2660709640157588</v>
       </c>
       <c r="C11" s="2">
-        <v>3.8294781386195029</v>
+        <v>3.8294810166349191</v>
       </c>
       <c r="D11" s="2">
-        <v>2.266070237071411</v>
+        <v>2.2660709640157588</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1179,13 +1179,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>1.146830818733737</v>
+        <v>1.146826142817702</v>
       </c>
       <c r="C12" s="2">
-        <v>1.286662421827</v>
+        <v>1.2866554116839759</v>
       </c>
       <c r="D12" s="2">
-        <v>1.146830818733737</v>
+        <v>1.146826142817702</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1193,13 +1193,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>1.2621101670618531</v>
+        <v>1.2621073300840939</v>
       </c>
       <c r="C13" s="2">
-        <v>1.587862819539283</v>
+        <v>1.587852199207261</v>
       </c>
       <c r="D13" s="2">
-        <v>1.2621101670618531</v>
+        <v>1.2621073300840939</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1207,13 +1207,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>3.4776064886392698E-2</v>
+        <v>3.4776258810837443E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>9.0985700571486583E-2</v>
+        <v>9.0986059859911442E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>5.562694177277256E-2</v>
+        <v>5.5626849179065137E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1221,13 +1221,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>1.262429016850585E-2</v>
+        <v>1.2624638090282241E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>0.1277670622012719</v>
+        <v>0.1277695413571604</v>
       </c>
       <c r="D15" s="2">
-        <v>8.1238794182190294E-2</v>
+        <v>8.1241285771956565E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1235,13 +1235,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>8.7618815499897848E-2</v>
+        <v>8.7619277951369687E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>0.44338444189746651</v>
+        <v>0.44339332439421342</v>
       </c>
       <c r="D16" s="2">
-        <v>0.30008849511392449</v>
+        <v>0.30009438436407337</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1249,13 +1249,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>2.377106083050852E-2</v>
+        <v>2.3771303385859689E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>0.75564206358918007</v>
+        <v>0.75563856714114197</v>
       </c>
       <c r="D17" s="2">
-        <v>0.20145846632686021</v>
+        <v>0.2014598894687428</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1263,13 +1263,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>1.3932575040523259E-2</v>
+        <v>1.3932952231933689E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>0.28282770587958572</v>
+        <v>0.28283157811370879</v>
       </c>
       <c r="D18" s="2">
-        <v>0.14983479078753839</v>
+        <v>0.1498380655460344</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1277,13 +1277,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>30.049848697343741</v>
+        <v>30.04978099978528</v>
       </c>
       <c r="C19" s="2">
-        <v>48.214220002889377</v>
+        <v>48.214375290537482</v>
       </c>
       <c r="D19" s="2">
-        <v>30.049848697343741</v>
+        <v>30.04978099978528</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1291,13 +1291,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>4.7324165774995569E-2</v>
+        <v>4.732497243293058E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>6.0689012843188998E-2</v>
+        <v>6.0689109769966727E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>4.7324165774995569E-2</v>
+        <v>4.732497243293058E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1305,13 +1305,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>0.19303265761960831</v>
+        <v>0.19303273115790401</v>
       </c>
       <c r="C21" s="2">
-        <v>0.27094703892222438</v>
+        <v>0.27094762150324408</v>
       </c>
       <c r="D21" s="2">
-        <v>0.19303265761960831</v>
+        <v>0.19303273115790401</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1319,13 +1319,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>8.6432276306568925E-2</v>
+        <v>8.643202832281964E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>0.11902400723687891</v>
+        <v>0.1190238711567707</v>
       </c>
       <c r="D22" s="2">
-        <v>8.6432276306568925E-2</v>
+        <v>8.643202832281964E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1333,13 +1333,13 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>0.23097647961844581</v>
+        <v>0.23097658968641691</v>
       </c>
       <c r="C23" s="2">
-        <v>0.31799592889954498</v>
+        <v>0.31799607639302352</v>
       </c>
       <c r="D23" s="2">
-        <v>0.23097647961844581</v>
+        <v>0.23097658968641691</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1347,13 +1347,13 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>1.542338558685719</v>
+        <v>1.542349022330761</v>
       </c>
       <c r="C24" s="2">
-        <v>2.0565592397800021</v>
+        <v>2.0565656486352681</v>
       </c>
       <c r="D24" s="2">
-        <v>1.542338558685719</v>
+        <v>1.542349022330761</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1361,13 +1361,13 @@
         <v>38</v>
       </c>
       <c r="B25" s="2">
-        <v>0.2276411054955805</v>
+        <v>0.22764172409843131</v>
       </c>
       <c r="C25" s="2">
-        <v>0.26524572628274601</v>
+        <v>0.26524663565631279</v>
       </c>
       <c r="D25" s="2">
-        <v>0.2276411054955805</v>
+        <v>0.22764172409843131</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1375,13 +1375,13 @@
         <v>40</v>
       </c>
       <c r="B26" s="2">
-        <v>0.28374636133300979</v>
+        <v>0.28374684711472709</v>
       </c>
       <c r="C26" s="2">
-        <v>0.33856107171246069</v>
+        <v>0.33856155112483682</v>
       </c>
       <c r="D26" s="2">
-        <v>0.28374636133300979</v>
+        <v>0.28374684711472709</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1389,13 +1389,13 @@
         <v>41</v>
       </c>
       <c r="B27" s="2">
-        <v>8.0667619100795729E-2</v>
+        <v>8.0666248035415833E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>9.6451547130020965E-2</v>
+        <v>9.6449242121067882E-2</v>
       </c>
       <c r="D27" s="2">
-        <v>8.0667619100795729E-2</v>
+        <v>8.0666248035415833E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1403,13 +1403,13 @@
         <v>43</v>
       </c>
       <c r="B28" s="2">
-        <v>0.15337981993992689</v>
+        <v>0.15338015041147621</v>
       </c>
       <c r="C28" s="2">
-        <v>0.20313155486409709</v>
+        <v>0.20313078485376429</v>
       </c>
       <c r="D28" s="2">
-        <v>0.15337981993992689</v>
+        <v>0.15338015041147621</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>47</v>
       </c>
       <c r="B29" s="2">
-        <v>0.466291347885816</v>
+        <v>0.46629312167265052</v>
       </c>
       <c r="C29" s="2">
-        <v>0.61527493638561814</v>
+        <v>0.61527710866473118</v>
       </c>
       <c r="D29" s="2">
-        <v>0.466291347885816</v>
+        <v>0.46629312167265052</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1431,13 +1431,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="2">
-        <v>0.13189278575282529</v>
+        <v>0.13189244414757251</v>
       </c>
       <c r="C30" s="2">
-        <v>0.1610830219893499</v>
+        <v>0.16108260769172381</v>
       </c>
       <c r="D30" s="2">
-        <v>0.13189278575282529</v>
+        <v>0.13189244414757251</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1445,13 +1445,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>9.3549281894687653</v>
+        <v>9.3549173745352334</v>
       </c>
       <c r="C31" s="2">
-        <v>10.857136095683231</v>
+        <v>10.85712780203953</v>
       </c>
       <c r="D31" s="2">
-        <v>9.3549281894687653</v>
+        <v>9.3549173745352334</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1459,13 +1459,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>1.9744003265865391</v>
+        <v>1.97441912098719</v>
       </c>
       <c r="C32" s="2">
-        <v>2.2429050524070702</v>
+        <v>2.2429189339706088</v>
       </c>
       <c r="D32" s="2">
-        <v>1.9744003265865391</v>
+        <v>1.97441912098719</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1473,13 +1473,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>0.53834329517829149</v>
+        <v>0.53834475830431527</v>
       </c>
       <c r="C33" s="2">
-        <v>0.67832573003836494</v>
+        <v>0.67832509613159653</v>
       </c>
       <c r="D33" s="2">
-        <v>0.53834329517829149</v>
+        <v>0.53834475830431527</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1487,13 +1487,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="2">
-        <v>0.31188281139783303</v>
+        <v>0.31188551250976659</v>
       </c>
       <c r="C34" s="2">
-        <v>0.36051439650574701</v>
+        <v>0.36051715516892407</v>
       </c>
       <c r="D34" s="2">
-        <v>0.31188281139783303</v>
+        <v>0.31188551250976659</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1501,13 +1501,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>0.86774966729208314</v>
+        <v>0.86774966292138345</v>
       </c>
       <c r="C35" s="2">
-        <v>1.209470001976515</v>
+        <v>1.2094708727963399</v>
       </c>
       <c r="D35" s="2">
-        <v>0.86774966729208314</v>
+        <v>0.86774966292138345</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1515,13 +1515,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1.813937155997225</v>
+        <v>1.8139369640228249</v>
       </c>
       <c r="C36" s="2">
-        <v>2.5269254994196841</v>
+        <v>2.5269267448882751</v>
       </c>
       <c r="D36" s="2">
-        <v>1.813937155997225</v>
+        <v>1.8139369640228249</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1529,13 +1529,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1.307716604684598</v>
+        <v>1.3077178956732629</v>
       </c>
       <c r="C37" s="2">
-        <v>1.672119729633508</v>
+        <v>1.672117986146491</v>
       </c>
       <c r="D37" s="2">
-        <v>1.307716604684598</v>
+        <v>1.3077178956732629</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1543,13 +1543,13 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>0.67990552682634942</v>
+        <v>0.67990664085607699</v>
       </c>
       <c r="C38" s="2">
-        <v>1.085398176926502</v>
+        <v>1.0853995967810179</v>
       </c>
       <c r="D38" s="2">
-        <v>0.67990552682634942</v>
+        <v>0.67990664085607699</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1557,13 +1557,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>1.8167284955327281</v>
+        <v>1.8167440054878909</v>
       </c>
       <c r="C39" s="2">
-        <v>2.238495157968253</v>
+        <v>2.2385043309729431</v>
       </c>
       <c r="D39" s="2">
-        <v>1.8167284955327281</v>
+        <v>1.8167440054878909</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1571,13 +1571,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="2">
-        <v>0.6132954279262155</v>
+        <v>0.61329679052291597</v>
       </c>
       <c r="C40" s="2">
-        <v>0.79834581909544988</v>
+        <v>0.79834756047186828</v>
       </c>
       <c r="D40" s="2">
-        <v>0.6132954279262155</v>
+        <v>0.61329679052291597</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1585,13 +1585,13 @@
         <v>48</v>
       </c>
       <c r="B41" s="2">
-        <v>5.7484194602434917E-2</v>
+        <v>5.7484404613565E-2</v>
       </c>
       <c r="C41" s="2">
-        <v>7.2214731957300063E-2</v>
+        <v>7.2215074861004327E-2</v>
       </c>
       <c r="D41" s="2">
-        <v>5.7484194602434917E-2</v>
+        <v>5.7484404613565E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1599,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="B42" s="2">
-        <v>0.13848409441359169</v>
+        <v>0.13848512584405531</v>
       </c>
       <c r="C42" s="2">
-        <v>0.17279925747780839</v>
+        <v>0.1728002216490217</v>
       </c>
       <c r="D42" s="2">
-        <v>0.13848409441359169</v>
+        <v>0.13848512584405531</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1613,13 +1613,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="2">
-        <v>7.2326686810163243E-2</v>
+        <v>7.2326701657787471E-2</v>
       </c>
       <c r="C43" s="2">
-        <v>9.3128654568880462E-2</v>
+        <v>9.3128829518436873E-2</v>
       </c>
       <c r="D43" s="2">
-        <v>7.2326686810163243E-2</v>
+        <v>7.2326701657787471E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1627,13 +1627,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>0.10006161352755941</v>
+        <v>0.1000620290139482</v>
       </c>
       <c r="C44" s="2">
-        <v>0.1217656896572821</v>
+        <v>0.12176620313198309</v>
       </c>
       <c r="D44" s="2">
-        <v>0.10006161352755941</v>
+        <v>0.1000620290139482</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1641,13 +1641,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>0.11368952022086951</v>
+        <v>0.1136901985619618</v>
       </c>
       <c r="C45" s="2">
-        <v>0.1371506641427957</v>
+        <v>0.13715207753456701</v>
       </c>
       <c r="D45" s="2">
-        <v>0.11368952022086951</v>
+        <v>0.1136901985619618</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1655,13 +1655,13 @@
         <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>0.30769875689464549</v>
+        <v>0.30770449992825888</v>
       </c>
       <c r="C46" s="2">
-        <v>0.4022467632414326</v>
+        <v>0.40225465271147898</v>
       </c>
       <c r="D46" s="2">
-        <v>0.30769875689464549</v>
+        <v>0.30770449992825888</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1669,13 +1669,13 @@
         <v>53</v>
       </c>
       <c r="B47" s="2">
-        <v>0.57702933955927016</v>
+        <v>0.57703243710447782</v>
       </c>
       <c r="C47" s="2">
-        <v>0.743466462886334</v>
+        <v>0.74347521672852279</v>
       </c>
       <c r="D47" s="2">
-        <v>0.57702933955927016</v>
+        <v>0.57703243710447782</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1683,13 +1683,13 @@
         <v>54</v>
       </c>
       <c r="B48" s="2">
-        <v>0.14147550380310239</v>
+        <v>0.14147617358056919</v>
       </c>
       <c r="C48" s="2">
-        <v>0.20134919186690239</v>
+        <v>0.20134989554387669</v>
       </c>
       <c r="D48" s="2">
-        <v>0.14147550380310239</v>
+        <v>0.14147617358056919</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1697,13 +1697,13 @@
         <v>55</v>
       </c>
       <c r="B49" s="2">
-        <v>0.14720194334305731</v>
+        <v>0.14720168764476191</v>
       </c>
       <c r="C49" s="2">
-        <v>0.17913239883542759</v>
+        <v>0.17913291655900029</v>
       </c>
       <c r="D49" s="2">
-        <v>0.14720194334305731</v>
+        <v>0.14720168764476191</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1711,13 +1711,13 @@
         <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>0.54003890013094236</v>
+        <v>0.54004670324103488</v>
       </c>
       <c r="C50" s="2">
-        <v>0.74645424843233255</v>
+        <v>0.746465890422499</v>
       </c>
       <c r="D50" s="2">
-        <v>0.54003890013094236</v>
+        <v>0.54004670324103488</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1725,13 +1725,13 @@
         <v>57</v>
       </c>
       <c r="B51" s="2">
-        <v>8.9376572057522932E-2</v>
+        <v>8.9376850880841366E-2</v>
       </c>
       <c r="C51" s="2">
-        <v>0.118369716050219</v>
+        <v>0.1183700775829169</v>
       </c>
       <c r="D51" s="2">
-        <v>8.9376572057522932E-2</v>
+        <v>8.9376850880841366E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1739,13 +1739,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2">
-        <v>0.1132330678414285</v>
+        <v>0.1132326133603672</v>
       </c>
       <c r="C52" s="2">
-        <v>0.13251206444633579</v>
+        <v>0.13251095238372251</v>
       </c>
       <c r="D52" s="2">
-        <v>0.1132330678414285</v>
+        <v>0.1132326133603672</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1753,13 +1753,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>1.018249890787128</v>
+        <v>1.018304854533095</v>
       </c>
       <c r="C53" s="2">
-        <v>1.063023450340828</v>
+        <v>1.0630764921952369</v>
       </c>
       <c r="D53" s="2">
-        <v>1.018249890787128</v>
+        <v>1.018304854533095</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1767,13 +1767,13 @@
         <v>31</v>
       </c>
       <c r="B54" s="2">
-        <v>0.26541334362717461</v>
+        <v>0.26541342477126628</v>
       </c>
       <c r="C54" s="2">
-        <v>0.29384215382297008</v>
+        <v>0.29384228725298572</v>
       </c>
       <c r="D54" s="2">
-        <v>0.26541334362717461</v>
+        <v>0.26541342477126628</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1781,13 +1781,13 @@
         <v>32</v>
       </c>
       <c r="B55" s="2">
-        <v>0.13362818230359341</v>
+        <v>0.13362767414003471</v>
       </c>
       <c r="C55" s="2">
-        <v>0.1664253039298037</v>
+        <v>0.16642479024203519</v>
       </c>
       <c r="D55" s="2">
-        <v>0.13362818230359341</v>
+        <v>0.13362767414003471</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1795,13 +1795,13 @@
         <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>0.18097475049393921</v>
+        <v>0.18097537394905239</v>
       </c>
       <c r="C56" s="2">
-        <v>0.2400148932397754</v>
+        <v>0.24001593259013601</v>
       </c>
       <c r="D56" s="2">
-        <v>0.18097475049393921</v>
+        <v>0.18097537394905239</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1809,13 +1809,13 @@
         <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2375358197192296</v>
+        <v>0.2375355865658054</v>
       </c>
       <c r="C57" s="2">
-        <v>0.322031290130595</v>
+        <v>0.32203196626361619</v>
       </c>
       <c r="D57" s="2">
-        <v>0.2375358197192296</v>
+        <v>0.2375355865658054</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1823,13 +1823,13 @@
         <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>0.57190717201193575</v>
+        <v>0.57190986936020793</v>
       </c>
       <c r="C58" s="2">
-        <v>0.76587317493950779</v>
+        <v>0.76587636015743499</v>
       </c>
       <c r="D58" s="2">
-        <v>0.57190717201193575</v>
+        <v>0.57190986936020793</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1837,13 +1837,13 @@
         <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>0.18903356266015861</v>
+        <v>0.18903343057322661</v>
       </c>
       <c r="C59" s="2">
-        <v>0.21011974020256469</v>
+        <v>0.21011972236749701</v>
       </c>
       <c r="D59" s="2">
-        <v>0.18903356266015861</v>
+        <v>0.18903343057322661</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1851,13 +1851,13 @@
         <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>0.1249912503009164</v>
+        <v>0.1249911227682356</v>
       </c>
       <c r="C60" s="2">
-        <v>0.16615756427477671</v>
+        <v>0.16615746846688839</v>
       </c>
       <c r="D60" s="2">
-        <v>0.1249912503009164</v>
+        <v>0.1249911227682356</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1865,13 +1865,13 @@
         <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>0.13374475345097819</v>
+        <v>0.1337450559865431</v>
       </c>
       <c r="C61" s="2">
-        <v>0.172420388811897</v>
+        <v>0.17242104999367761</v>
       </c>
       <c r="D61" s="2">
-        <v>0.13374475345097819</v>
+        <v>0.1337450559865431</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1879,13 +1879,13 @@
         <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>0.37331964560454439</v>
+        <v>0.3733280307964158</v>
       </c>
       <c r="C62" s="2">
-        <v>0.43327376548044222</v>
+        <v>0.43327653056310589</v>
       </c>
       <c r="D62" s="2">
-        <v>0.37331964560454439</v>
+        <v>0.3733280307964158</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1893,13 +1893,13 @@
         <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>0.45025650733043959</v>
+        <v>0.45020325255714783</v>
       </c>
       <c r="C63" s="2">
-        <v>0.55716952180396984</v>
+        <v>0.55712007820648524</v>
       </c>
       <c r="D63" s="2">
-        <v>0.45025650733043959</v>
+        <v>0.45020325255714783</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1907,13 +1907,13 @@
         <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>0.17621100753503999</v>
+        <v>0.1762081127955191</v>
       </c>
       <c r="C64" s="2">
-        <v>0.44340313896441641</v>
+        <v>0.44339457847578129</v>
       </c>
       <c r="D64" s="2">
-        <v>0.17621100753503999</v>
+        <v>0.1762081127955191</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1921,13 +1921,13 @@
         <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>0.30269889209917977</v>
+        <v>0.30269853503006677</v>
       </c>
       <c r="C65" s="2">
-        <v>0.40024696728702919</v>
+        <v>0.40024687123849212</v>
       </c>
       <c r="D65" s="2">
-        <v>0.30269889209917977</v>
+        <v>0.30269853503006677</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1935,13 +1935,13 @@
         <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>0.35890557773113652</v>
+        <v>0.35890826492649852</v>
       </c>
       <c r="C66" s="2">
-        <v>0.51146064010452774</v>
+        <v>0.51146292162380502</v>
       </c>
       <c r="D66" s="2">
-        <v>0.35890557773113652</v>
+        <v>0.35890826492649852</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1949,13 +1949,13 @@
         <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>0.36811288888882537</v>
+        <v>0.36809007357359269</v>
       </c>
       <c r="C67" s="2">
-        <v>0.4259889863538413</v>
+        <v>0.4259916393006295</v>
       </c>
       <c r="D67" s="2">
-        <v>0.36811288888882537</v>
+        <v>0.36809007357359269</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1963,13 +1963,13 @@
         <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>0.15182396902799211</v>
+        <v>0.1518243460762598</v>
       </c>
       <c r="C68" s="2">
-        <v>0.2268805855196846</v>
+        <v>0.2268814468267317</v>
       </c>
       <c r="D68" s="2">
-        <v>0.15182396902799211</v>
+        <v>0.1518243460762598</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1977,13 +1977,13 @@
         <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>5.4369069519413699E-2</v>
+        <v>5.4369129940515508E-2</v>
       </c>
       <c r="C69" s="2">
-        <v>6.5946271126105502E-2</v>
+        <v>6.5946374065206884E-2</v>
       </c>
       <c r="D69" s="2">
-        <v>5.4369069519413699E-2</v>
+        <v>5.4369129940515508E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1991,13 +1991,13 @@
         <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>1.124702180236399</v>
+        <v>1.12470266186366</v>
       </c>
       <c r="C70" s="2">
-        <v>1.3454675646089671</v>
+        <v>1.345473076871015</v>
       </c>
       <c r="D70" s="2">
-        <v>0.55317696917997794</v>
+        <v>0.55317919585839304</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2005,13 +2005,13 @@
         <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>0.70108956989164462</v>
+        <v>0.70109075152432132</v>
       </c>
       <c r="C71" s="2">
-        <v>1.19849553608444</v>
+        <v>1.1984989909297601</v>
       </c>
       <c r="D71" s="2">
-        <v>0.3990286764654119</v>
+        <v>0.39902946666475853</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2019,13 +2019,13 @@
         <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>0.21589960140998049</v>
+        <v>0.21589997226817029</v>
       </c>
       <c r="C72" s="2">
-        <v>0.27456530999208628</v>
+        <v>0.27456584750512553</v>
       </c>
       <c r="D72" s="2">
-        <v>0.21589960140998049</v>
+        <v>0.21589997226817029</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2033,13 +2033,13 @@
         <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>0.106279656146799</v>
+        <v>0.10628029027567359</v>
       </c>
       <c r="C73" s="2">
-        <v>0.29581609787608482</v>
+        <v>0.29582327505190892</v>
       </c>
       <c r="D73" s="2">
-        <v>0.106279656146799</v>
+        <v>0.10628029027567359</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2047,13 +2047,13 @@
         <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>7.1105761539095522E-2</v>
+        <v>7.1105951153716165E-2</v>
       </c>
       <c r="C74" s="2">
-        <v>9.1365996365630545E-2</v>
+        <v>9.1366098769483359E-2</v>
       </c>
       <c r="D74" s="2">
-        <v>7.1105761539095522E-2</v>
+        <v>7.1105951153716165E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2061,13 +2061,13 @@
         <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>0.23711289057928109</v>
+        <v>0.2371118979237902</v>
       </c>
       <c r="C75" s="2">
-        <v>0.32290087889839281</v>
+        <v>0.32289871365765482</v>
       </c>
       <c r="D75" s="2">
-        <v>0.23711289057928109</v>
+        <v>0.2371118979237902</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2075,13 +2075,13 @@
         <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>0.1689590082508686</v>
+        <v>0.1689582479589781</v>
       </c>
       <c r="C76" s="2">
-        <v>0.20771676504856559</v>
+        <v>0.2077160200025383</v>
       </c>
       <c r="D76" s="2">
-        <v>0.1689590082508686</v>
+        <v>0.1689582479589781</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2089,13 +2089,13 @@
         <v>42</v>
       </c>
       <c r="B77" s="2">
-        <v>0.1200839783151527</v>
+        <v>0.1200838698854348</v>
       </c>
       <c r="C77" s="2">
-        <v>0.16928545719404089</v>
+        <v>0.16928526049130679</v>
       </c>
       <c r="D77" s="2">
-        <v>0.1200839783151527</v>
+        <v>0.1200838698854348</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2103,13 +2103,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="2">
-        <v>0.28315793426919411</v>
+        <v>0.28313590189935411</v>
       </c>
       <c r="C78" s="2">
-        <v>0.32360626811548249</v>
+        <v>0.32358324061819749</v>
       </c>
       <c r="D78" s="2">
-        <v>0.28315793426919411</v>
+        <v>0.28313590189935411</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2117,13 +2117,13 @@
         <v>44</v>
       </c>
       <c r="B79" s="2">
-        <v>0.12772074816873211</v>
+        <v>0.127720467078279</v>
       </c>
       <c r="C79" s="2">
-        <v>0.15263599516279411</v>
+        <v>0.1526357707775326</v>
       </c>
       <c r="D79" s="2">
-        <v>0.12772074816873211</v>
+        <v>0.127720467078279</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2131,13 +2131,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>0.51247752444585448</v>
+        <v>0.51250898344891327</v>
       </c>
       <c r="C80" s="2">
-        <v>0.61557391659500593</v>
+        <v>0.6156060257349909</v>
       </c>
       <c r="D80" s="2">
-        <v>0.51247752444585448</v>
+        <v>0.51250898344891327</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2145,13 +2145,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>1.3569763996402451</v>
+        <v>1.356982395772657</v>
       </c>
       <c r="C81" s="2">
-        <v>2.0229650213227122</v>
+        <v>2.0229727019668711</v>
       </c>
       <c r="D81" s="2">
-        <v>1.3569763996402451</v>
+        <v>1.356982395772657</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2159,13 +2159,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>0.90176661627654398</v>
+        <v>0.90181884021566194</v>
       </c>
       <c r="C82" s="2">
-        <v>1.078586457517628</v>
+        <v>1.0786353779134881</v>
       </c>
       <c r="D82" s="2">
-        <v>0.90176661627654398</v>
+        <v>0.90181884021566194</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2173,13 +2173,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>0.18209406434450631</v>
+        <v>0.18209420689311301</v>
       </c>
       <c r="C83" s="2">
-        <v>0.236475013217438</v>
+        <v>0.2364754830176673</v>
       </c>
       <c r="D83" s="2">
-        <v>0.18209406434450631</v>
+        <v>0.18209420689311301</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2187,13 +2187,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>0.2968715095201519</v>
+        <v>0.29687189507236678</v>
       </c>
       <c r="C84" s="2">
-        <v>0.43829734499512291</v>
+        <v>0.43829816078807732</v>
       </c>
       <c r="D84" s="2">
-        <v>0.2968715095201519</v>
+        <v>0.29687189507236678</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2201,13 +2201,13 @@
         <v>136</v>
       </c>
       <c r="B85" s="2">
-        <v>0.34159307296762692</v>
+        <v>0.34159326508635979</v>
       </c>
       <c r="C85" s="2">
-        <v>0.44180874202755083</v>
+        <v>0.44180896404522563</v>
       </c>
       <c r="D85" s="2">
-        <v>0.34159307296762692</v>
+        <v>0.34159326508635979</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2215,13 +2215,13 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>117.4128299804288</v>
+        <v>116.9657393697381</v>
       </c>
       <c r="C86" s="2">
-        <v>169.85350855497271</v>
+        <v>166.14702567481291</v>
       </c>
       <c r="D86" s="2">
-        <v>117.4128299804288</v>
+        <v>116.9657393697381</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2229,13 +2229,13 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>4.9182251851283247</v>
+        <v>4.9515860873313686</v>
       </c>
       <c r="C87" s="2">
-        <v>5.945835147549178</v>
+        <v>5.9832890164223302</v>
       </c>
       <c r="D87" s="2">
-        <v>4.9182251851283247</v>
+        <v>4.9515860873313686</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2243,13 +2243,13 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>0.95780247852251266</v>
+        <v>0.9578029946347385</v>
       </c>
       <c r="C88" s="2">
-        <v>1.27706147900933</v>
+        <v>1.2770528635877101</v>
       </c>
       <c r="D88" s="2">
-        <v>0.95780247852251266</v>
+        <v>0.9578029946347385</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2257,13 +2257,13 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>2.291851491943</v>
+        <v>2.2918626080841742</v>
       </c>
       <c r="C89" s="2">
-        <v>3.1786741747043918</v>
+        <v>3.1787069528203471</v>
       </c>
       <c r="D89" s="2">
-        <v>2.291851491943</v>
+        <v>2.2918626080841742</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2271,13 +2271,13 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>3.255183152730849</v>
+        <v>3.2551464581724621</v>
       </c>
       <c r="C90" s="2">
-        <v>4.1603263657821152</v>
+        <v>4.1603119252090641</v>
       </c>
       <c r="D90" s="2">
-        <v>3.255183152730849</v>
+        <v>3.2551464581724621</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2285,13 +2285,13 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>1.424008541146675</v>
+        <v>1.4236985706822991</v>
       </c>
       <c r="C91" s="2">
-        <v>1.5815294638361601</v>
+        <v>1.5812014286173179</v>
       </c>
       <c r="D91" s="2">
-        <v>1.424008541146675</v>
+        <v>1.4236985706822991</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2299,13 +2299,13 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>0.80410248595434641</v>
+        <v>0.8040966288725685</v>
       </c>
       <c r="C92" s="2">
-        <v>0.87092173280117591</v>
+        <v>0.87091558028592475</v>
       </c>
       <c r="D92" s="2">
-        <v>0.80410248595434641</v>
+        <v>0.8040966288725685</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2313,13 +2313,13 @@
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>3.314119787802873</v>
+        <v>3.3141047878540859</v>
       </c>
       <c r="C93" s="2">
-        <v>3.838999837472691</v>
+        <v>3.83898758049971</v>
       </c>
       <c r="D93" s="2">
-        <v>3.314119787802873</v>
+        <v>3.3141047878540859</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2327,13 +2327,13 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>1.930804012649175</v>
+        <v>1.930809315364183</v>
       </c>
       <c r="C94" s="2">
-        <v>2.9060024126071582</v>
+        <v>2.9060162087996408</v>
       </c>
       <c r="D94" s="2">
-        <v>1.930804012649175</v>
+        <v>1.930809315364183</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2341,13 +2341,13 @@
         <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>1.006336985543707</v>
+        <v>1.006338025915779</v>
       </c>
       <c r="C95" s="2">
-        <v>1.2693732331872261</v>
+        <v>1.2693773534172319</v>
       </c>
       <c r="D95" s="2">
-        <v>1.006336985543707</v>
+        <v>1.006338025915779</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2355,13 +2355,13 @@
         <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>0.59949682325097087</v>
+        <v>0.59949076775370835</v>
       </c>
       <c r="C96" s="2">
-        <v>0.74501036063032167</v>
+        <v>0.74501063114150012</v>
       </c>
       <c r="D96" s="2">
-        <v>0.59949682325097087</v>
+        <v>0.59949076775370835</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2369,13 +2369,13 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>0.87939845398746808</v>
+        <v>0.87939544532565372</v>
       </c>
       <c r="C97" s="2">
-        <v>1.0496082374161479</v>
+        <v>1.0496055583605071</v>
       </c>
       <c r="D97" s="2">
-        <v>0.87939845398746808</v>
+        <v>0.87939544532565372</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2383,13 +2383,13 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>1.365813359755675</v>
+        <v>1.365807656411657</v>
       </c>
       <c r="C98" s="2">
-        <v>1.6172090948581079</v>
+        <v>1.617206287151234</v>
       </c>
       <c r="D98" s="2">
-        <v>1.365813359755675</v>
+        <v>1.365807656411657</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2397,13 +2397,13 @@
         <v>100</v>
       </c>
       <c r="B99" s="2">
-        <v>5.4347920417510691</v>
+        <v>5.4347889042930584</v>
       </c>
       <c r="C99" s="2">
-        <v>7.1214084969847713</v>
+        <v>7.1214052359748408</v>
       </c>
       <c r="D99" s="2">
-        <v>5.4347920417510691</v>
+        <v>5.4347889042930584</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2411,13 +2411,13 @@
         <v>101</v>
       </c>
       <c r="B100" s="2">
-        <v>3.382030330180787</v>
+        <v>3.3820893557237208</v>
       </c>
       <c r="C100" s="2">
-        <v>3.9670598908640802</v>
+        <v>3.967099051876223</v>
       </c>
       <c r="D100" s="2">
-        <v>3.382030330180787</v>
+        <v>3.3820893557237208</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2425,13 +2425,13 @@
         <v>102</v>
       </c>
       <c r="B101" s="2">
-        <v>1.8489885181397721</v>
+        <v>1.8489854144551621</v>
       </c>
       <c r="C101" s="2">
-        <v>2.5705817354444189</v>
+        <v>2.5705873664093088</v>
       </c>
       <c r="D101" s="2">
-        <v>1.8489885181397721</v>
+        <v>1.8489854144551621</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2439,13 +2439,13 @@
         <v>103</v>
       </c>
       <c r="B102" s="2">
-        <v>1.1373186298875999</v>
+        <v>1.1373180284498621</v>
       </c>
       <c r="C102" s="2">
-        <v>1.524400876424558</v>
+        <v>1.5243986237810589</v>
       </c>
       <c r="D102" s="2">
-        <v>1.1373186298875999</v>
+        <v>1.1373180284498621</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2453,13 +2453,13 @@
         <v>104</v>
       </c>
       <c r="B103" s="2">
-        <v>1.368369290293354</v>
+        <v>1.3683726597075261</v>
       </c>
       <c r="C103" s="2">
-        <v>1.9419840495367831</v>
+        <v>1.941992628716654</v>
       </c>
       <c r="D103" s="2">
-        <v>1.368369290293354</v>
+        <v>1.3683726597075261</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2467,13 +2467,13 @@
         <v>105</v>
       </c>
       <c r="B104" s="2">
-        <v>2.747836835311201</v>
+        <v>2.7478464257899309</v>
       </c>
       <c r="C104" s="2">
-        <v>3.558003771208778</v>
+        <v>3.558009989647644</v>
       </c>
       <c r="D104" s="2">
-        <v>2.747836835311201</v>
+        <v>2.7478464257899309</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2481,13 +2481,13 @@
         <v>106</v>
       </c>
       <c r="B105" s="2">
-        <v>2.2145112517714778</v>
+        <v>2.2145170505765779</v>
       </c>
       <c r="C105" s="2">
-        <v>2.766363973176039</v>
+        <v>2.766369413919894</v>
       </c>
       <c r="D105" s="2">
-        <v>2.2145112517714778</v>
+        <v>2.2145170505765779</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2495,13 +2495,13 @@
         <v>107</v>
       </c>
       <c r="B106" s="2">
-        <v>3.2126564718628758</v>
+        <v>3.212671141562121</v>
       </c>
       <c r="C106" s="2">
-        <v>4.0845059586998813</v>
+        <v>4.084523325156681</v>
       </c>
       <c r="D106" s="2">
-        <v>3.2126564718628758</v>
+        <v>3.212671141562121</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2509,13 +2509,13 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>2.364587372108323</v>
+        <v>2.364583621926668</v>
       </c>
       <c r="C107" s="2">
-        <v>3.1776053051141329</v>
+        <v>3.1775999615037569</v>
       </c>
       <c r="D107" s="2">
-        <v>2.364587372108323</v>
+        <v>2.364583621926668</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2523,13 +2523,13 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>1.9855975773288519</v>
+        <v>1.9856033165484051</v>
       </c>
       <c r="C108" s="2">
-        <v>2.3510807864835348</v>
+        <v>2.3510735828782749</v>
       </c>
       <c r="D108" s="2">
-        <v>1.9855975773288519</v>
+        <v>1.9856033165484051</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2537,13 +2537,13 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>1.635066055899512</v>
+        <v>1.6350380547696941</v>
       </c>
       <c r="C109" s="2">
-        <v>1.9362906983345169</v>
+        <v>1.9362616593676749</v>
       </c>
       <c r="D109" s="2">
-        <v>1.635066055899512</v>
+        <v>1.6350380547696941</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2551,13 +2551,13 @@
         <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>2.5404602118224089</v>
+        <v>2.5405025590392798</v>
       </c>
       <c r="C110" s="2">
-        <v>3.5350403880094241</v>
+        <v>3.5350270753545789</v>
       </c>
       <c r="D110" s="2">
-        <v>2.5404602118224089</v>
+        <v>2.5405025590392798</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2565,13 +2565,13 @@
         <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>3.4019052226384492</v>
+        <v>3.4019315869714721</v>
       </c>
       <c r="C111" s="2">
-        <v>4.086518224000609</v>
+        <v>4.0865362443038977</v>
       </c>
       <c r="D111" s="2">
-        <v>3.4019052226384492</v>
+        <v>3.4019315869714721</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2579,13 +2579,13 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>4.573351389178872</v>
+        <v>4.5733534434318139</v>
       </c>
       <c r="C112" s="2">
-        <v>5.9834394339648727</v>
+        <v>5.9834357964370497</v>
       </c>
       <c r="D112" s="2">
-        <v>4.573351389178872</v>
+        <v>4.5733534434318139</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2593,13 +2593,13 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>12.01001072596746</v>
+        <v>12.01002170252576</v>
       </c>
       <c r="C113" s="2">
-        <v>15.50096846727544</v>
+        <v>15.50106744296764</v>
       </c>
       <c r="D113" s="2">
-        <v>12.01001072596746</v>
+        <v>12.01002170252576</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2607,13 +2607,13 @@
         <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>10.29671564924921</v>
+        <v>10.2967803045011</v>
       </c>
       <c r="C114" s="2">
-        <v>14.04813531253474</v>
+        <v>14.04822046832931</v>
       </c>
       <c r="D114" s="2">
-        <v>10.29671564924921</v>
+        <v>10.2967803045011</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2621,13 +2621,13 @@
         <v>116</v>
       </c>
       <c r="B115" s="2">
-        <v>1.228721076432318</v>
+        <v>1.228716278816153</v>
       </c>
       <c r="C115" s="2">
-        <v>1.446130754578741</v>
+        <v>1.446123120318654</v>
       </c>
       <c r="D115" s="2">
-        <v>1.228721076432318</v>
+        <v>1.228716278816153</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2635,13 +2635,13 @@
         <v>137</v>
       </c>
       <c r="B116" s="2">
-        <v>3.4662048221200599</v>
+        <v>3.4659992647841831</v>
       </c>
       <c r="C116" s="2">
-        <v>4.5951728917398462</v>
+        <v>4.5949062603521051</v>
       </c>
       <c r="D116" s="2">
-        <v>3.4662048221200599</v>
+        <v>3.4659992647841831</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2649,13 +2649,13 @@
         <v>138</v>
       </c>
       <c r="B117" s="2">
-        <v>1.5704962274610419</v>
+        <v>1.570494885535564</v>
       </c>
       <c r="C117" s="2">
-        <v>1.8299827991232649</v>
+        <v>1.8299762294639521</v>
       </c>
       <c r="D117" s="2">
-        <v>1.5704962274610419</v>
+        <v>1.570494885535564</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2663,13 +2663,13 @@
         <v>139</v>
       </c>
       <c r="B118" s="2">
-        <v>2.0158168002247212</v>
+        <v>2.0157635921778141</v>
       </c>
       <c r="C118" s="2">
-        <v>2.4485222766044208</v>
+        <v>2.448475648756252</v>
       </c>
       <c r="D118" s="2">
-        <v>2.0158168002247212</v>
+        <v>2.0157635921778141</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2677,13 +2677,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>1.2490182063925841</v>
+        <v>1.2490010111079779</v>
       </c>
       <c r="C119" s="2">
-        <v>1.5656034935683789</v>
+        <v>1.5655912018813971</v>
       </c>
       <c r="D119" s="2">
-        <v>1.2490182063925841</v>
+        <v>1.2490010111079779</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2691,13 +2691,13 @@
         <v>140</v>
       </c>
       <c r="B120" s="2">
-        <v>5.0369592348010954</v>
+        <v>5.0370113498264244</v>
       </c>
       <c r="C120" s="2">
-        <v>6.1785891268470321</v>
+        <v>6.178678296736674</v>
       </c>
       <c r="D120" s="2">
-        <v>5.0369592348010954</v>
+        <v>5.0370113498264244</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2705,13 +2705,13 @@
         <v>118</v>
       </c>
       <c r="B121" s="2">
-        <v>4.7150352010361116</v>
+        <v>4.7152755285676449</v>
       </c>
       <c r="C121" s="2">
-        <v>4.9119185764348847</v>
+        <v>4.912266785454384</v>
       </c>
       <c r="D121" s="2">
-        <v>4.7150352010361116</v>
+        <v>4.7152755285676449</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2719,13 +2719,13 @@
         <v>119</v>
       </c>
       <c r="B122" s="2">
-        <v>1.6251085499531279</v>
+        <v>1.625124128209805</v>
       </c>
       <c r="C122" s="2">
-        <v>1.973082598558439</v>
+        <v>1.973096362889142</v>
       </c>
       <c r="D122" s="2">
-        <v>1.6251085499531279</v>
+        <v>1.625124128209805</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2733,13 +2733,13 @@
         <v>120</v>
       </c>
       <c r="B123" s="2">
-        <v>0.7385688280522934</v>
+        <v>0.73857345023303911</v>
       </c>
       <c r="C123" s="2">
-        <v>0.88040348849936978</v>
+        <v>0.88040931469050943</v>
       </c>
       <c r="D123" s="2">
-        <v>0.7385688280522934</v>
+        <v>0.73857345023303911</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2747,13 +2747,13 @@
         <v>121</v>
       </c>
       <c r="B124" s="2">
-        <v>9.176909274211388</v>
+        <v>9.1769416030984772</v>
       </c>
       <c r="C124" s="2">
-        <v>10.66816755151549</v>
+        <v>10.66819495822218</v>
       </c>
       <c r="D124" s="2">
-        <v>9.176909274211388</v>
+        <v>9.1769416030984772</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2761,13 +2761,13 @@
         <v>122</v>
       </c>
       <c r="B125" s="2">
-        <v>0.63116599226269454</v>
+        <v>0.63116845009320033</v>
       </c>
       <c r="C125" s="2">
-        <v>0.82069702349613172</v>
+        <v>0.82069299768857196</v>
       </c>
       <c r="D125" s="2">
-        <v>0.63116599226269454</v>
+        <v>0.63116845009320033</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2775,13 +2775,13 @@
         <v>123</v>
       </c>
       <c r="B126" s="2">
-        <v>3.0761771295735421</v>
+        <v>3.0761671355528182</v>
       </c>
       <c r="C126" s="2">
-        <v>4.5627134454471907</v>
+        <v>4.5626851287891306</v>
       </c>
       <c r="D126" s="2">
-        <v>3.0761771295735421</v>
+        <v>3.0761671355528182</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2789,13 +2789,13 @@
         <v>124</v>
       </c>
       <c r="B127" s="2">
-        <v>2.2974200449780349</v>
+        <v>2.2974496227521581</v>
       </c>
       <c r="C127" s="2">
-        <v>3.0898682672722582</v>
+        <v>3.089912676561263</v>
       </c>
       <c r="D127" s="2">
-        <v>2.2974200449780349</v>
+        <v>2.2974496227521581</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2803,13 +2803,13 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>0.66309466149726737</v>
+        <v>0.66309512231307677</v>
       </c>
       <c r="C128" s="2">
-        <v>0.77085385669375983</v>
+        <v>0.77085511984062949</v>
       </c>
       <c r="D128" s="2">
-        <v>0.66309466149726737</v>
+        <v>0.66309512231307677</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2817,13 +2817,13 @@
         <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>1.727659141802685</v>
+        <v>1.727651721197919</v>
       </c>
       <c r="C129" s="2">
-        <v>2.09140797598821</v>
+        <v>2.0913907752302472</v>
       </c>
       <c r="D129" s="2">
-        <v>1.727659141802685</v>
+        <v>1.727651721197919</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2831,13 +2831,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="2">
-        <v>5.1934844061036349</v>
+        <v>5.1934662479769171</v>
       </c>
       <c r="C130" s="2">
-        <v>9.9573197774868216</v>
+        <v>9.9573032135358517</v>
       </c>
       <c r="D130" s="2">
-        <v>5.1934844061036349</v>
+        <v>5.1934662479769171</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2845,13 +2845,13 @@
         <v>128</v>
       </c>
       <c r="B131" s="2">
-        <v>3.8387008811275698</v>
+        <v>3.8386859491801721</v>
       </c>
       <c r="C131" s="2">
-        <v>5.7328697073938999</v>
+        <v>5.7328459803854672</v>
       </c>
       <c r="D131" s="2">
-        <v>3.8387008811275698</v>
+        <v>3.8386859491801721</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2859,13 +2859,13 @@
         <v>129</v>
       </c>
       <c r="B132" s="2">
-        <v>2.776755139544659</v>
+        <v>2.7767623949421498</v>
       </c>
       <c r="C132" s="2">
-        <v>3.554833893999529</v>
+        <v>3.5548374035652031</v>
       </c>
       <c r="D132" s="2">
-        <v>2.776755139544659</v>
+        <v>2.7767623949421498</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2873,13 +2873,13 @@
         <v>130</v>
       </c>
       <c r="B133" s="2">
-        <v>2.7554958760015871</v>
+        <v>2.755491955852249</v>
       </c>
       <c r="C133" s="2">
-        <v>4.5511178743627436</v>
+        <v>4.5511131066688462</v>
       </c>
       <c r="D133" s="2">
-        <v>2.7554958760015871</v>
+        <v>2.755491955852249</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2887,13 +2887,13 @@
         <v>131</v>
       </c>
       <c r="B134" s="2">
-        <v>1.6603492154941679</v>
+        <v>1.660350879510097</v>
       </c>
       <c r="C134" s="2">
-        <v>2.1814698396341541</v>
+        <v>2.181475138471427</v>
       </c>
       <c r="D134" s="2">
-        <v>1.6603492154941679</v>
+        <v>1.660350879510097</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2901,13 +2901,13 @@
         <v>132</v>
       </c>
       <c r="B135" s="2">
-        <v>2.3283648959510601</v>
+        <v>2.328361954355179</v>
       </c>
       <c r="C135" s="2">
-        <v>3.1512133505043689</v>
+        <v>3.1512111441361128</v>
       </c>
       <c r="D135" s="2">
-        <v>2.5287161499462392</v>
+        <v>2.5287089159186</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2915,13 +2915,13 @@
         <v>133</v>
       </c>
       <c r="B136" s="2">
-        <v>2.7523690264049612</v>
+        <v>2.7523695904072132</v>
       </c>
       <c r="C136" s="2">
-        <v>3.7922344622786759</v>
+        <v>3.7922355538431902</v>
       </c>
       <c r="D136" s="2">
-        <v>2.7523690264049612</v>
+        <v>2.7523695904072132</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2929,13 +2929,13 @@
         <v>134</v>
       </c>
       <c r="B137" s="2">
-        <v>1.481499704809154</v>
+        <v>1.4814986563962611</v>
       </c>
       <c r="C137" s="2">
-        <v>1.8289894412566541</v>
+        <v>1.8289921181687601</v>
       </c>
       <c r="D137" s="2">
-        <v>1.3759514615444071</v>
+        <v>1.37595353787679</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2943,13 +2943,13 @@
         <v>135</v>
       </c>
       <c r="B138" s="2">
-        <v>5.6436202945460918</v>
+        <v>5.6436147412103557</v>
       </c>
       <c r="C138" s="2">
-        <v>4.9857522124591167</v>
+        <v>4.9857568088721509</v>
       </c>
       <c r="D138" s="2">
-        <v>3.9340285857174329</v>
+        <v>3.9340261994594758</v>
       </c>
     </row>
   </sheetData>
